--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBDAE51-E12E-48D4-AC81-5ADADFBD5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AD478C-7FBF-4CE3-990D-B59DDF0D5F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detection Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
     <t>Profit</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +102,21 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -122,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA678083-25DE-43B7-8E8B-3CB625356D8C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -454,7 +468,7 @@
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,21 +479,26 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -511,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,13 +538,27 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="4">
         <v>44503.804359814872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44503.898853070074</v>
       </c>
     </row>
   </sheetData>
@@ -537,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,22 +585,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BBFBE-75A7-4327-81AD-6438445D90ED}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AD478C-7FBF-4CE3-990D-B59DDF0D5F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF303931-DB59-4806-B35C-716D4E812881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detection Data" sheetId="1" r:id="rId1"/>
     <sheet name="Log" sheetId="5" r:id="rId2"/>
     <sheet name="Report Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Long Price Data" sheetId="2" r:id="rId4"/>
+    <sheet name="PriceData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +108,21 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -135,13 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +575,20 @@
         <v>44503.898853070074</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44504.407790594174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -570,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -610,10 +638,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BBFBE-75A7-4327-81AD-6438445D90ED}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,18 +649,21 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
   </sheetData>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF303931-DB59-4806-B35C-716D4E812881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2944285A-9A6C-461F-BFC2-42B7C7089F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detection Data" sheetId="1" r:id="rId1"/>
     <sheet name="Log" sheetId="5" r:id="rId2"/>
     <sheet name="Report Data" sheetId="3" r:id="rId3"/>
-    <sheet name="PriceData" sheetId="2" r:id="rId4"/>
+    <sheet name="Price Log" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t xml:space="preserve"> s</t>
-  </si>
-  <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -473,13 +473,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,6 +495,9 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -512,7 +515,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -598,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -616,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2944285A-9A6C-461F-BFC2-42B7C7089F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E4B3D-C810-4BFF-BE88-7CE76397C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -599,19 +599,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,19 +621,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +640,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BBFBE-75A7-4327-81AD-6438445D90ED}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -652,7 +651,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,10 +662,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
   </sheetData>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E4B3D-C810-4BFF-BE88-7CE76397C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C44D1-4E96-4A6F-A128-DE9440D27147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Detection Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Log" sheetId="5" r:id="rId2"/>
     <sheet name="Report Data" sheetId="3" r:id="rId3"/>
     <sheet name="Price Log" sheetId="2" r:id="rId4"/>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA678083-25DE-43B7-8E8B-3CB625356D8C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C44D1-4E96-4A6F-A128-DE9440D27147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC1FF0-4D01-4DC2-BA9C-060E1A06D24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>abcdefghijk2</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,11 +534,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -551,8 +560,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -561,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>44503.804359814872</v>
+        <v>44503.804363425923</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +622,7 @@
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,6 +640,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC1FF0-4D01-4DC2-BA9C-060E1A06D24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF144EE-4003-44AB-B657-F7CAF054B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA678083-25DE-43B7-8E8B-3CB625356D8C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -608,21 +608,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,12 +635,15 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF144EE-4003-44AB-B657-F7CAF054B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B9F92-690C-47C6-87BD-3C30AC7AB3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BBFBE-75A7-4327-81AD-6438445D90ED}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
